--- a/data_test.xlsx
+++ b/data_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\test_crm\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F8D92C-27EE-4652-9F9B-5DAB1220C73A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B427AF6F-977A-4DC3-B1C2-1C0B3E9D41DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="51585" windowHeight="20985" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="948">
   <si>
     <t>Название рассылки</t>
   </si>
@@ -2940,10 +2940,28 @@
     <t>Step_3</t>
   </si>
   <si>
-    <t>GitHub:</t>
-  </si>
-  <si>
     <t>https://github.com/Unbeliev4ble/mail_test</t>
+  </si>
+  <si>
+    <t>Main GitHub:</t>
+  </si>
+  <si>
+    <t>https://github.com/Unbeliev4ble/mail_test/blob/main/Power_BI_visual.pbix</t>
+  </si>
+  <si>
+    <t>Power BI visualization</t>
+  </si>
+  <si>
+    <t>https://github.com/Unbeliev4ble/mail_test/blob/main/data_test.xlsx</t>
+  </si>
+  <si>
+    <t>Main DATA + Pivot Table</t>
+  </si>
+  <si>
+    <t>Jupiter Notebook</t>
+  </si>
+  <si>
+    <t>https://github.com/Unbeliev4ble/mail_test/blob/main/mail_test_notepad.ipynb</t>
   </si>
 </sst>
 </file>
@@ -35510,32 +35528,82 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE418CF-68E9-4B94-92A8-E7BB88DBA469}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="93.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="42" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>940</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>941</v>
-      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>945</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="42" t="s">
+        <v>943</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="42" t="s">
+        <v>946</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="42"/>
+      <c r="B5" s="41"/>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="42"/>
+      <c r="B6" s="41"/>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="42"/>
+      <c r="B7" s="41"/>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="42"/>
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="B9" s="41"/>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="B10" s="41"/>
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="B11" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{3230F188-9819-4722-8BAA-84E700277DA5}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{E2639B66-BAE7-434B-808F-2207415388FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
